--- a/Resultats.xlsx
+++ b/Resultats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victo\Desktop\Uni\4o\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\TFG_Snake_Victor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C43846-DAEF-4499-ABA5-0209A0CD6B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C8B0A3-A0C2-4D91-82D7-403CF09DE035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CA80037B-26AB-4D40-8E4A-86ABF997AC04}"/>
   </bookViews>
@@ -7758,7 +7758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3489B2CB-9FCB-4CF8-9BFD-EB77419780CA}">
   <dimension ref="B3:L10003"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z53" sqref="Z53"/>
     </sheetView>
   </sheetViews>
